--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Amh-Acvr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Amh-Acvr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Amh</t>
+  </si>
+  <si>
+    <t>Acvr1</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Amh</t>
-  </si>
-  <si>
-    <t>Acvr1</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.36304</v>
+        <v>0.294587</v>
       </c>
       <c r="H2">
-        <v>1.08912</v>
+        <v>0.883761</v>
       </c>
       <c r="I2">
-        <v>0.1912137398884271</v>
+        <v>0.2010206147344287</v>
       </c>
       <c r="J2">
-        <v>0.191213739888427</v>
+        <v>0.2010206147344287</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.436778333333334</v>
+        <v>10.92359866666667</v>
       </c>
       <c r="N2">
-        <v>16.310335</v>
+        <v>32.770796</v>
       </c>
       <c r="O2">
-        <v>0.121853993972124</v>
+        <v>0.2236009040380497</v>
       </c>
       <c r="P2">
-        <v>0.121853993972124</v>
+        <v>0.2236009040380497</v>
       </c>
       <c r="Q2">
-        <v>1.973768006133334</v>
+        <v>3.217950160417334</v>
       </c>
       <c r="R2">
-        <v>17.7639120552</v>
+        <v>28.961551443756</v>
       </c>
       <c r="S2">
-        <v>0.02330015790775168</v>
+        <v>0.04494839118490274</v>
       </c>
       <c r="T2">
-        <v>0.02330015790775168</v>
+        <v>0.04494839118490274</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.36304</v>
+        <v>0.294587</v>
       </c>
       <c r="H3">
-        <v>1.08912</v>
+        <v>0.883761</v>
       </c>
       <c r="I3">
-        <v>0.1912137398884271</v>
+        <v>0.2010206147344287</v>
       </c>
       <c r="J3">
-        <v>0.191213739888427</v>
+        <v>0.2010206147344287</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>62.452076</v>
       </c>
       <c r="O3">
-        <v>0.4665774732677552</v>
+        <v>0.4261214970992155</v>
       </c>
       <c r="P3">
-        <v>0.4665774732677551</v>
+        <v>0.4261214970992155</v>
       </c>
       <c r="Q3">
-        <v>7.557533890346668</v>
+        <v>6.132523237537333</v>
       </c>
       <c r="R3">
-        <v>68.01780501312</v>
+        <v>55.192709137836</v>
       </c>
       <c r="S3">
-        <v>0.08921602361122008</v>
+        <v>0.08565920529843937</v>
       </c>
       <c r="T3">
-        <v>0.08921602361122005</v>
+        <v>0.08565920529843936</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.36304</v>
+        <v>0.294587</v>
       </c>
       <c r="H4">
-        <v>1.08912</v>
+        <v>0.883761</v>
       </c>
       <c r="I4">
-        <v>0.1912137398884271</v>
+        <v>0.2010206147344287</v>
       </c>
       <c r="J4">
-        <v>0.191213739888427</v>
+        <v>0.2010206147344287</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.23122433333334</v>
+        <v>13.06524766666667</v>
       </c>
       <c r="N4">
-        <v>39.693673</v>
+        <v>39.195743</v>
       </c>
       <c r="O4">
-        <v>0.2965501683732102</v>
+        <v>0.2674394472823625</v>
       </c>
       <c r="P4">
-        <v>0.2965501683732101</v>
+        <v>0.2674394472823625</v>
       </c>
       <c r="Q4">
-        <v>4.803463681973335</v>
+        <v>3.848852114380333</v>
       </c>
       <c r="R4">
-        <v>43.23117313776001</v>
+        <v>34.639669029423</v>
       </c>
       <c r="S4">
-        <v>0.05670446675918427</v>
+        <v>0.05376084209693634</v>
       </c>
       <c r="T4">
-        <v>0.05670446675918425</v>
+        <v>0.05376084209693634</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.36304</v>
+        <v>0.294587</v>
       </c>
       <c r="H5">
-        <v>1.08912</v>
+        <v>0.883761</v>
       </c>
       <c r="I5">
-        <v>0.1912137398884271</v>
+        <v>0.2010206147344287</v>
       </c>
       <c r="J5">
-        <v>0.191213739888427</v>
+        <v>0.2010206147344287</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.131792</v>
+        <v>4.046901</v>
       </c>
       <c r="N5">
-        <v>15.395376</v>
+        <v>12.140703</v>
       </c>
       <c r="O5">
-        <v>0.1150183643869107</v>
+        <v>0.0828381515803724</v>
       </c>
       <c r="P5">
-        <v>0.1150183643869107</v>
+        <v>0.0828381515803724</v>
       </c>
       <c r="Q5">
-        <v>1.86304576768</v>
+        <v>1.192164424887</v>
       </c>
       <c r="R5">
-        <v>16.76741190912</v>
+        <v>10.729479823983</v>
       </c>
       <c r="S5">
-        <v>0.02199309161027106</v>
+        <v>0.01665217615415025</v>
       </c>
       <c r="T5">
-        <v>0.02199309161027106</v>
+        <v>0.01665217615415025</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,31 +770,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.294587</v>
+        <v>1.032183333333333</v>
       </c>
       <c r="H6">
-        <v>0.883761</v>
+        <v>3.09655</v>
       </c>
       <c r="I6">
-        <v>0.155159436956016</v>
+        <v>0.7043424461544411</v>
       </c>
       <c r="J6">
-        <v>0.155159436956016</v>
+        <v>0.7043424461544411</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.436778333333334</v>
+        <v>10.92359866666667</v>
       </c>
       <c r="N6">
-        <v>16.310335</v>
+        <v>32.770796</v>
       </c>
       <c r="O6">
-        <v>0.121853993972124</v>
+        <v>0.2236009040380497</v>
       </c>
       <c r="P6">
-        <v>0.121853993972124</v>
+        <v>0.2236009040380497</v>
       </c>
       <c r="Q6">
-        <v>1.601604218881667</v>
+        <v>11.27515648375556</v>
       </c>
       <c r="R6">
-        <v>14.414437969935</v>
+        <v>101.4764083538</v>
       </c>
       <c r="S6">
-        <v>0.01890679709555653</v>
+        <v>0.1574916077125044</v>
       </c>
       <c r="T6">
-        <v>0.01890679709555654</v>
+        <v>0.1574916077125043</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,31 +832,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.294587</v>
+        <v>1.032183333333333</v>
       </c>
       <c r="H7">
-        <v>0.883761</v>
+        <v>3.09655</v>
       </c>
       <c r="I7">
-        <v>0.155159436956016</v>
+        <v>0.7043424461544411</v>
       </c>
       <c r="J7">
-        <v>0.155159436956016</v>
+        <v>0.7043424461544411</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>62.452076</v>
       </c>
       <c r="O7">
-        <v>0.4665774732677552</v>
+        <v>0.4261214970992155</v>
       </c>
       <c r="P7">
-        <v>0.4665774732677551</v>
+        <v>0.4261214970992155</v>
       </c>
       <c r="Q7">
-        <v>6.132523237537333</v>
+        <v>21.48733065975555</v>
       </c>
       <c r="R7">
-        <v>55.192709137836</v>
+        <v>193.3859759378</v>
       </c>
       <c r="S7">
-        <v>0.07239389804858551</v>
+        <v>0.300135457625854</v>
       </c>
       <c r="T7">
-        <v>0.07239389804858551</v>
+        <v>0.300135457625854</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,31 +894,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.294587</v>
+        <v>1.032183333333333</v>
       </c>
       <c r="H8">
-        <v>0.883761</v>
+        <v>3.09655</v>
       </c>
       <c r="I8">
-        <v>0.155159436956016</v>
+        <v>0.7043424461544411</v>
       </c>
       <c r="J8">
-        <v>0.155159436956016</v>
+        <v>0.7043424461544411</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.23122433333334</v>
+        <v>13.06524766666667</v>
       </c>
       <c r="N8">
-        <v>39.693673</v>
+        <v>39.195743</v>
       </c>
       <c r="O8">
-        <v>0.2965501683732102</v>
+        <v>0.2674394472823625</v>
       </c>
       <c r="P8">
-        <v>0.2965501683732101</v>
+        <v>0.2674394472823625</v>
       </c>
       <c r="Q8">
-        <v>3.897746682683667</v>
+        <v>13.48573088740555</v>
       </c>
       <c r="R8">
-        <v>35.07972014415301</v>
+        <v>121.37157798665</v>
       </c>
       <c r="S8">
-        <v>0.04601255715399905</v>
+        <v>0.1883689544970509</v>
       </c>
       <c r="T8">
-        <v>0.04601255715399904</v>
+        <v>0.1883689544970509</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,31 +956,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.294587</v>
+        <v>1.032183333333333</v>
       </c>
       <c r="H9">
-        <v>0.883761</v>
+        <v>3.09655</v>
       </c>
       <c r="I9">
-        <v>0.155159436956016</v>
+        <v>0.7043424461544411</v>
       </c>
       <c r="J9">
-        <v>0.155159436956016</v>
+        <v>0.7043424461544411</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.131792</v>
+        <v>4.046901</v>
       </c>
       <c r="N9">
-        <v>15.395376</v>
+        <v>12.140703</v>
       </c>
       <c r="O9">
-        <v>0.1150183643869107</v>
+        <v>0.0828381515803724</v>
       </c>
       <c r="P9">
-        <v>0.1150183643869107</v>
+        <v>0.0828381515803724</v>
       </c>
       <c r="Q9">
-        <v>1.511759209904</v>
+        <v>4.177143763849999</v>
       </c>
       <c r="R9">
-        <v>13.605832889136</v>
+        <v>37.59429387465</v>
       </c>
       <c r="S9">
-        <v>0.01784618465787495</v>
+        <v>0.05834642631903188</v>
       </c>
       <c r="T9">
-        <v>0.01784618465787495</v>
+        <v>0.05834642631903188</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,31 +1018,31 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>25</v>
       </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.9616966666666666</v>
+        <v>0.1386863333333333</v>
       </c>
       <c r="H10">
-        <v>2.88509</v>
+        <v>0.416059</v>
       </c>
       <c r="I10">
-        <v>0.5065271492716156</v>
+        <v>0.09463693911113033</v>
       </c>
       <c r="J10">
-        <v>0.5065271492716156</v>
+        <v>0.09463693911113034</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.436778333333334</v>
+        <v>10.92359866666667</v>
       </c>
       <c r="N10">
-        <v>16.310335</v>
+        <v>32.770796</v>
       </c>
       <c r="O10">
-        <v>0.121853993972124</v>
+        <v>0.2236009040380497</v>
       </c>
       <c r="P10">
-        <v>0.121853993972124</v>
+        <v>0.2236009040380497</v>
       </c>
       <c r="Q10">
-        <v>5.228531600572222</v>
+        <v>1.514953845884889</v>
       </c>
       <c r="R10">
-        <v>47.05678440515</v>
+        <v>13.634584612964</v>
       </c>
       <c r="S10">
-        <v>0.06172235619406061</v>
+        <v>0.02116090514064261</v>
       </c>
       <c r="T10">
-        <v>0.06172235619406062</v>
+        <v>0.02116090514064261</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,31 +1080,31 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.9616966666666666</v>
+        <v>0.1386863333333333</v>
       </c>
       <c r="H11">
-        <v>2.88509</v>
+        <v>0.416059</v>
       </c>
       <c r="I11">
-        <v>0.5065271492716156</v>
+        <v>0.09463693911113033</v>
       </c>
       <c r="J11">
-        <v>0.5065271492716156</v>
+        <v>0.09463693911113034</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>62.452076</v>
       </c>
       <c r="O11">
-        <v>0.4665774732677552</v>
+        <v>0.4261214970992155</v>
       </c>
       <c r="P11">
-        <v>0.4665774732677551</v>
+        <v>0.4261214970992155</v>
       </c>
       <c r="Q11">
-        <v>20.01998443853778</v>
+        <v>2.887083143164889</v>
       </c>
       <c r="R11">
-        <v>180.17985994684</v>
+        <v>25.983748288484</v>
       </c>
       <c r="S11">
-        <v>0.2363341574486695</v>
+        <v>0.04032683417492216</v>
       </c>
       <c r="T11">
-        <v>0.2363341574486694</v>
+        <v>0.04032683417492216</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,31 +1142,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.9616966666666666</v>
+        <v>0.1386863333333333</v>
       </c>
       <c r="H12">
-        <v>2.88509</v>
+        <v>0.416059</v>
       </c>
       <c r="I12">
-        <v>0.5065271492716156</v>
+        <v>0.09463693911113033</v>
       </c>
       <c r="J12">
-        <v>0.5065271492716156</v>
+        <v>0.09463693911113034</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.23122433333334</v>
+        <v>13.06524766666667</v>
       </c>
       <c r="N12">
-        <v>39.693673</v>
+        <v>39.195743</v>
       </c>
       <c r="O12">
-        <v>0.2965501683732102</v>
+        <v>0.2674394472823625</v>
       </c>
       <c r="P12">
-        <v>0.2965501683732101</v>
+        <v>0.2674394472823625</v>
       </c>
       <c r="Q12">
-        <v>12.72442433728556</v>
+        <v>1.811971292981889</v>
       </c>
       <c r="R12">
-        <v>114.51981903557</v>
+        <v>16.307741636837</v>
       </c>
       <c r="S12">
-        <v>0.1502107114020998</v>
+        <v>0.02530965068837529</v>
       </c>
       <c r="T12">
-        <v>0.1502107114020997</v>
+        <v>0.02530965068837529</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,31 +1204,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.9616966666666666</v>
+        <v>0.1386863333333333</v>
       </c>
       <c r="H13">
-        <v>2.88509</v>
+        <v>0.416059</v>
       </c>
       <c r="I13">
-        <v>0.5065271492716156</v>
+        <v>0.09463693911113033</v>
       </c>
       <c r="J13">
-        <v>0.5065271492716156</v>
+        <v>0.09463693911113034</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,276 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.131792</v>
+        <v>4.046901</v>
       </c>
       <c r="N13">
-        <v>15.395376</v>
+        <v>12.140703</v>
       </c>
       <c r="O13">
-        <v>0.1150183643869107</v>
+        <v>0.0828381515803724</v>
       </c>
       <c r="P13">
-        <v>0.1150183643869107</v>
+        <v>0.0828381515803724</v>
       </c>
       <c r="Q13">
-        <v>4.935227260426666</v>
+        <v>0.561249861053</v>
       </c>
       <c r="R13">
-        <v>44.41704534384</v>
+        <v>5.051248749477001</v>
       </c>
       <c r="S13">
-        <v>0.05825992422678578</v>
+        <v>0.007839549107190287</v>
       </c>
       <c r="T13">
-        <v>0.05825992422678578</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G14">
-        <v>0.2792846666666667</v>
-      </c>
-      <c r="H14">
-        <v>0.837854</v>
-      </c>
-      <c r="I14">
-        <v>0.1470996738839413</v>
-      </c>
-      <c r="J14">
-        <v>0.1470996738839413</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>5.436778333333334</v>
-      </c>
-      <c r="N14">
-        <v>16.310335</v>
-      </c>
-      <c r="O14">
-        <v>0.121853993972124</v>
-      </c>
-      <c r="P14">
-        <v>0.121853993972124</v>
-      </c>
-      <c r="Q14">
-        <v>1.518408824565556</v>
-      </c>
-      <c r="R14">
-        <v>13.66567942109</v>
-      </c>
-      <c r="S14">
-        <v>0.01792468277475519</v>
-      </c>
-      <c r="T14">
-        <v>0.01792468277475519</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G15">
-        <v>0.2792846666666667</v>
-      </c>
-      <c r="H15">
-        <v>0.837854</v>
-      </c>
-      <c r="I15">
-        <v>0.1470996738839413</v>
-      </c>
-      <c r="J15">
-        <v>0.1470996738839413</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>20.81735866666667</v>
-      </c>
-      <c r="N15">
-        <v>62.452076</v>
-      </c>
-      <c r="O15">
-        <v>0.4665774732677552</v>
-      </c>
-      <c r="P15">
-        <v>0.4665774732677551</v>
-      </c>
-      <c r="Q15">
-        <v>5.813969076100445</v>
-      </c>
-      <c r="R15">
-        <v>52.325721684904</v>
-      </c>
-      <c r="S15">
-        <v>0.06863339415928013</v>
-      </c>
-      <c r="T15">
-        <v>0.06863339415928012</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G16">
-        <v>0.2792846666666667</v>
-      </c>
-      <c r="H16">
-        <v>0.837854</v>
-      </c>
-      <c r="I16">
-        <v>0.1470996738839413</v>
-      </c>
-      <c r="J16">
-        <v>0.1470996738839413</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>13.23122433333334</v>
-      </c>
-      <c r="N16">
-        <v>39.693673</v>
-      </c>
-      <c r="O16">
-        <v>0.2965501683732102</v>
-      </c>
-      <c r="P16">
-        <v>0.2965501683732101</v>
-      </c>
-      <c r="Q16">
-        <v>3.695278077526889</v>
-      </c>
-      <c r="R16">
-        <v>33.25750269774201</v>
-      </c>
-      <c r="S16">
-        <v>0.04362243305792711</v>
-      </c>
-      <c r="T16">
-        <v>0.0436224330579271</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G17">
-        <v>0.2792846666666667</v>
-      </c>
-      <c r="H17">
-        <v>0.837854</v>
-      </c>
-      <c r="I17">
-        <v>0.1470996738839413</v>
-      </c>
-      <c r="J17">
-        <v>0.1470996738839413</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>5.131792</v>
-      </c>
-      <c r="N17">
-        <v>15.395376</v>
-      </c>
-      <c r="O17">
-        <v>0.1150183643869107</v>
-      </c>
-      <c r="P17">
-        <v>0.1150183643869107</v>
-      </c>
-      <c r="Q17">
-        <v>1.433230818122667</v>
-      </c>
-      <c r="R17">
-        <v>12.899077363104</v>
-      </c>
-      <c r="S17">
-        <v>0.01691916389197889</v>
-      </c>
-      <c r="T17">
-        <v>0.01691916389197889</v>
+        <v>0.007839549107190289</v>
       </c>
     </row>
   </sheetData>
